--- a/sf-documents.xlsx
+++ b/sf-documents.xlsx
@@ -398,14 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>ახალი დაკავშირებული დემო ბაზასთან</v>
+        <v>test</v>
       </c>
     </row>
     <row r="2">
@@ -418,10 +418,10 @@
         <v>პერიოდი</v>
       </c>
       <c r="B3" s="1">
-        <v>44927</v>
+        <v>42767</v>
       </c>
       <c r="C3" s="1">
-        <v>45291</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="4">
@@ -437,10 +437,22 @@
         <v>თარიღი</v>
       </c>
       <c r="B6" t="str">
-        <v>დებეტი</v>
+        <v>დებეტური ანგარიშის ნომერი</v>
+      </c>
+      <c r="C6" t="str">
+        <v>დებეტური ანგარიშის სახელი</v>
+      </c>
+      <c r="D6" t="str">
+        <v>დებეტური ანგარიშის ვალუტა</v>
       </c>
       <c r="E6" t="str">
-        <v>კრედიტი</v>
+        <v>კრედიტული ანგარიშის ნომერი</v>
+      </c>
+      <c r="F6" t="str">
+        <v>კრედიტული ანგარიშის სახელი</v>
+      </c>
+      <c r="G6" t="str">
+        <v>კრედიტული ანგარიშის ვალუტა</v>
       </c>
       <c r="H6" t="str">
         <v>თანხა</v>
@@ -487,28 +499,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45291</v>
+        <v>44343</v>
       </c>
       <c r="B7" t="str">
-        <v>7170</v>
+        <v>1410\001</v>
       </c>
       <c r="C7" t="str">
-        <v>ცვეთა და ამორტიზაცია</v>
+        <v>შპს ივერია</v>
       </c>
       <c r="D7" t="str">
         <v>GEL</v>
       </c>
       <c r="E7" t="str">
-        <v>2250</v>
+        <v>6110</v>
       </c>
       <c r="F7" t="str">
-        <v>მანქანა-დანადგარების ცვეთა</v>
+        <v>შემოსავალი რეალიზაციიდან</v>
       </c>
       <c r="G7" t="str">
         <v>GEL</v>
       </c>
       <c r="H7">
-        <v>458.21</v>
+        <v>211.86</v>
       </c>
       <c r="I7" t="str">
         <v>GEL</v>
@@ -517,16 +529,16 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>458.21</v>
+        <v>211.86</v>
       </c>
       <c r="L7" t="str">
-        <v xml:space="preserve">                          2023</v>
+        <v xml:space="preserve">                              </v>
       </c>
       <c r="M7" t="str">
-        <v>ლ.ცფმ:</v>
+        <v>ტექნიკური - ბაზის გაყოფა - მომსახურების რეალიზაცია</v>
       </c>
       <c r="N7" t="str">
-        <v>ძირითადი საშუალებების საბუთი</v>
+        <v>საბუღალტრო ოპერაცია</v>
       </c>
       <c r="O7" t="str">
         <v>საბალანსო</v>
@@ -535,24 +547,804 @@
         <v>კი</v>
       </c>
       <c r="Q7">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="S7" t="str">
         <v/>
       </c>
       <c r="T7" t="str">
-        <v>superfin-app-service@gss.ge - კაკო -უპაროლოდ</v>
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
       </c>
       <c r="U7" t="str">
         <v/>
       </c>
       <c r="V7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1410\001</v>
+      </c>
+      <c r="C8" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D8" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E8" t="str">
+        <v>3330\001</v>
+      </c>
+      <c r="F8" t="str">
+        <v>გადასახდელი დღგ - მიწოდებაზე</v>
+      </c>
+      <c r="G8" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H8">
+        <v>38.14</v>
+      </c>
+      <c r="I8" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>38.14</v>
+      </c>
+      <c r="L8" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M8" t="str">
+        <v>ტექნიკური - ბაზის გაყოფა - მომსახურების რეალიზაცია</v>
+      </c>
+      <c r="N8" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O8" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P8" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B9" t="str">
+        <v>3120\001</v>
+      </c>
+      <c r="C9" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D9" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E9" t="str">
+        <v>6110</v>
+      </c>
+      <c r="F9" t="str">
+        <v>შემოსავალი რეალიზაციიდან</v>
+      </c>
+      <c r="G9" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M9" t="str">
+        <v>აპრილის ავანსის - მიწოდება/რეალიზაციაზე დასმა</v>
+      </c>
+      <c r="N9" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O9" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P9" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B10" t="str">
+        <v>3120\001</v>
+      </c>
+      <c r="C10" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D10" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E10" t="str">
+        <v>3330\003</v>
+      </c>
+      <c r="F10" t="str">
+        <v>ავანსზე - მიწოდების დღგ</v>
+      </c>
+      <c r="G10" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M10" t="str">
+        <v>აპრილის ავანსის - მიწოდება/რეალიზაციაზე დასმა</v>
+      </c>
+      <c r="N10" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O10" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P10" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B11" t="str">
+        <v>7110</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ძირითადი მასალების დანახარჯები</v>
+      </c>
+      <c r="D11" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E11" t="str">
+        <v>1610</v>
+      </c>
+      <c r="F11" t="str">
+        <v>საქონელი</v>
+      </c>
+      <c r="G11" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="I11" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>27</v>
+      </c>
+      <c r="L11" t="str">
+        <v xml:space="preserve">                    გზ-1-00001</v>
+      </c>
+      <c r="M11" t="str">
+        <v>გასავლის ზედდებული - შპს ივერია</v>
+      </c>
+      <c r="N11" t="str">
+        <v>გასავლის ზედდებული</v>
+      </c>
+      <c r="O11" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P11" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1410\001</v>
+      </c>
+      <c r="C12" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D12" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E12" t="str">
+        <v>6110</v>
+      </c>
+      <c r="F12" t="str">
+        <v>შემოსავალი რეალიზაციიდან</v>
+      </c>
+      <c r="G12" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H12">
+        <v>22.88</v>
+      </c>
+      <c r="I12" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>22.88</v>
+      </c>
+      <c r="L12" t="str">
+        <v xml:space="preserve">                    გზ-1-00001</v>
+      </c>
+      <c r="M12" t="str">
+        <v>გასავლის ზედდებული - შპს ივერია</v>
+      </c>
+      <c r="N12" t="str">
+        <v>გასავლის ზედდებული</v>
+      </c>
+      <c r="O12" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P12" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B13" t="str">
+        <v>1410\001</v>
+      </c>
+      <c r="C13" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D13" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E13" t="str">
+        <v>3330\001</v>
+      </c>
+      <c r="F13" t="str">
+        <v>გადასახდელი დღგ - მიწოდებაზე</v>
+      </c>
+      <c r="G13" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H13">
+        <v>4.12</v>
+      </c>
+      <c r="I13" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4.12</v>
+      </c>
+      <c r="L13" t="str">
+        <v xml:space="preserve">                    გზ-1-00001</v>
+      </c>
+      <c r="M13" t="str">
+        <v>გასავლის ზედდებული - შპს ივერია</v>
+      </c>
+      <c r="N13" t="str">
+        <v>გასავლის ზედდებული</v>
+      </c>
+      <c r="O13" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P13" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1410\002</v>
+      </c>
+      <c r="C14" t="str">
+        <v>შპს ლიდერი</v>
+      </c>
+      <c r="D14" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E14" t="str">
+        <v>6110</v>
+      </c>
+      <c r="F14" t="str">
+        <v>შემოსავალი რეალიზაციიდან</v>
+      </c>
+      <c r="G14" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M14" t="str">
+        <v>კონსულტაცია - მომსახურების რეალიზაცია</v>
+      </c>
+      <c r="N14" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O14" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P14" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B15" t="str">
+        <v>1410\002</v>
+      </c>
+      <c r="C15" t="str">
+        <v>შპს ლიდერი</v>
+      </c>
+      <c r="D15" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E15" t="str">
+        <v>3330\001</v>
+      </c>
+      <c r="F15" t="str">
+        <v>გადასახდელი დღგ - მიწოდებაზე</v>
+      </c>
+      <c r="G15" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M15" t="str">
+        <v>კონსულტაცია - მომსახურების რეალიზაცია</v>
+      </c>
+      <c r="N15" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O15" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P15" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B16" t="str">
+        <v>1410\001</v>
+      </c>
+      <c r="C16" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D16" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E16" t="str">
+        <v>6110</v>
+      </c>
+      <c r="F16" t="str">
+        <v>შემოსავალი რეალიზაციიდან</v>
+      </c>
+      <c r="G16" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M16" t="str">
+        <v>კონსულტაცია - მომსახურების რეალიზაცია</v>
+      </c>
+      <c r="N16" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O16" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P16" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1410\001</v>
+      </c>
+      <c r="C17" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D17" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E17" t="str">
+        <v>3330\001</v>
+      </c>
+      <c r="F17" t="str">
+        <v>გადასახდელი დღგ - მიწოდებაზე</v>
+      </c>
+      <c r="G17" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M17" t="str">
+        <v>კონსულტაცია - მომსახურების რეალიზაცია</v>
+      </c>
+      <c r="N17" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O17" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P17" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B18" t="str">
+        <v>1410\001</v>
+      </c>
+      <c r="C18" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="D18" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E18" t="str">
+        <v>3120\001</v>
+      </c>
+      <c r="F18" t="str">
+        <v>შპს ივერია</v>
+      </c>
+      <c r="G18" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H18">
+        <v>118</v>
+      </c>
+      <c r="I18" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>118</v>
+      </c>
+      <c r="L18" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M18" t="str">
+        <v>სუპერფინის მომსახურებაზე ჩარიცხული - აპრილის ავანსი</v>
+      </c>
+      <c r="N18" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O18" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P18" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B19" t="str">
+        <v>3330\003</v>
+      </c>
+      <c r="C19" t="str">
+        <v>ავანსზე - მიწოდების დღგ</v>
+      </c>
+      <c r="D19" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="E19" t="str">
+        <v>3330\002</v>
+      </c>
+      <c r="F19" t="str">
+        <v>გადასახდელი დღგ - ავანსზე</v>
+      </c>
+      <c r="G19" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19" t="str">
+        <v>GEL</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19" t="str">
+        <v xml:space="preserve">                              </v>
+      </c>
+      <c r="M19" t="str">
+        <v>სუპერფინის მომსახურებაზე ჩარიცხული - აპრილის ავანსი</v>
+      </c>
+      <c r="N19" t="str">
+        <v>საბუღალტრო ოპერაცია</v>
+      </c>
+      <c r="O19" t="str">
+        <v>საბალანსო</v>
+      </c>
+      <c r="P19" t="str">
+        <v>კი</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v>superfin app service - მომხმარებელი - უპაროლო</v>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V19"/>
   </ignoredErrors>
 </worksheet>
 </file>